--- a/tests/data/private-data/assessment/dataset-revision/iris.xlsx
+++ b/tests/data/private-data/assessment/dataset-revision/iris.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shapiromatron/dev/hawc/tests/data/private-data/assessment/dataset-revision/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260BB825-A329-8F40-8900-C5C011C672A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="34620" windowHeight="26260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -43,8 +49,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +113,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -153,7 +167,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -185,9 +199,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,6 +251,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -394,14 +444,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,9 +468,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B2">
         <v>3.5</v>
@@ -435,9 +485,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -452,7 +502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4.7</v>
       </c>
@@ -469,9 +519,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B5">
         <v>3.1</v>
@@ -486,7 +536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -503,7 +553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5.4</v>
       </c>
@@ -520,9 +570,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B8">
         <v>3.4</v>
@@ -537,7 +587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -554,9 +604,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B10">
         <v>2.9</v>
@@ -571,9 +621,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="B11">
         <v>3.1</v>
@@ -588,7 +638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5.4</v>
       </c>
@@ -605,7 +655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>4.8</v>
       </c>
@@ -622,7 +672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4.8</v>
       </c>
@@ -639,7 +689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>4.3</v>
       </c>
@@ -647,7 +697,7 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D15">
         <v>0.1</v>
@@ -656,7 +706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>5.8</v>
       </c>
@@ -673,12 +723,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5.7</v>
       </c>
       <c r="B17">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C17">
         <v>1.5</v>
@@ -690,7 +740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5.4</v>
       </c>
@@ -707,9 +757,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B19">
         <v>3.5</v>
@@ -724,7 +774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5.7</v>
       </c>
@@ -741,9 +791,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B21">
         <v>3.8</v>
@@ -758,7 +808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5.4</v>
       </c>
@@ -775,9 +825,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B23">
         <v>3.7</v>
@@ -792,9 +842,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B24">
         <v>3.6</v>
@@ -809,9 +859,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B25">
         <v>3.3</v>
@@ -826,7 +876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4.8</v>
       </c>
@@ -843,7 +893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>5</v>
       </c>
@@ -860,7 +910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5</v>
       </c>
@@ -877,7 +927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>5.2</v>
       </c>
@@ -894,7 +944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>5.2</v>
       </c>
@@ -911,7 +961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4.7</v>
       </c>
@@ -928,7 +978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4.8</v>
       </c>
@@ -945,7 +995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>5.4</v>
       </c>
@@ -962,12 +1012,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>5.2</v>
       </c>
       <c r="B34">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C34">
         <v>1.5</v>
@@ -979,7 +1029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>5.5</v>
       </c>
@@ -996,9 +1046,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="B36">
         <v>3.1</v>
@@ -1013,7 +1063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>5</v>
       </c>
@@ -1030,7 +1080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>5.5</v>
       </c>
@@ -1047,9 +1097,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="B39">
         <v>3.1</v>
@@ -1064,9 +1114,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -1081,9 +1131,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B41">
         <v>3.4</v>
@@ -1098,7 +1148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1115,12 +1165,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>4.5</v>
       </c>
       <c r="B43">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C43">
         <v>1.3</v>
@@ -1132,9 +1182,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B44">
         <v>3.2</v>
@@ -1149,7 +1199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>5</v>
       </c>
@@ -1166,9 +1216,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B46">
         <v>3.8</v>
@@ -1183,7 +1233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>4.8</v>
       </c>
@@ -1200,9 +1250,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B48">
         <v>3.8</v>
@@ -1217,9 +1267,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="B49">
         <v>3.2</v>
@@ -1234,7 +1284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>5.3</v>
       </c>
@@ -1251,7 +1301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>5</v>
       </c>
@@ -1268,7 +1318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>7</v>
       </c>
@@ -1285,7 +1335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>6.4</v>
       </c>
@@ -1302,7 +1352,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>6.9</v>
       </c>
@@ -1310,7 +1360,7 @@
         <v>3.1</v>
       </c>
       <c r="C54">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D54">
         <v>1.5</v>
@@ -1319,12 +1369,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>5.5</v>
       </c>
       <c r="B55">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -1336,7 +1386,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>6.5</v>
       </c>
@@ -1344,7 +1394,7 @@
         <v>2.8</v>
       </c>
       <c r="C56">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D56">
         <v>1.5</v>
@@ -1353,7 +1403,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>5.7</v>
       </c>
@@ -1370,7 +1420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>6.3</v>
       </c>
@@ -1387,9 +1437,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="B59">
         <v>2.4</v>
@@ -1404,7 +1454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>6.6</v>
       </c>
@@ -1412,7 +1462,7 @@
         <v>2.9</v>
       </c>
       <c r="C60">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D60">
         <v>1.3</v>
@@ -1421,7 +1471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>5.2</v>
       </c>
@@ -1438,7 +1488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>5</v>
       </c>
@@ -1455,7 +1505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>5.9</v>
       </c>
@@ -1472,12 +1522,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>6</v>
       </c>
       <c r="B64">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -1489,7 +1539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>6.1</v>
       </c>
@@ -1506,7 +1556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>5.6</v>
       </c>
@@ -1523,7 +1573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>6.7</v>
       </c>
@@ -1531,7 +1581,7 @@
         <v>3.1</v>
       </c>
       <c r="C67">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D67">
         <v>1.4</v>
@@ -1540,7 +1590,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>5.6</v>
       </c>
@@ -1557,7 +1607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>5.8</v>
       </c>
@@ -1565,7 +1615,7 @@
         <v>2.7</v>
       </c>
       <c r="C69">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -1574,12 +1624,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>6.2</v>
       </c>
       <c r="B70">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C70">
         <v>4.5</v>
@@ -1591,7 +1641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>5.6</v>
       </c>
@@ -1602,13 +1652,13 @@
         <v>3.9</v>
       </c>
       <c r="D71">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E71" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>5.9</v>
       </c>
@@ -1625,7 +1675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>6.1</v>
       </c>
@@ -1642,7 +1692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>6.3</v>
       </c>
@@ -1650,7 +1700,7 @@
         <v>2.5</v>
       </c>
       <c r="C74">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D74">
         <v>1.5</v>
@@ -1659,7 +1709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>6.1</v>
       </c>
@@ -1676,7 +1726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>6.4</v>
       </c>
@@ -1693,7 +1743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>6.6</v>
       </c>
@@ -1701,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="C77">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D77">
         <v>1.4</v>
@@ -1710,7 +1760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>6.8</v>
       </c>
@@ -1727,7 +1777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>6.7</v>
       </c>
@@ -1744,7 +1794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>6</v>
       </c>
@@ -1761,7 +1811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>5.7</v>
       </c>
@@ -1778,7 +1828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>5.5</v>
       </c>
@@ -1789,13 +1839,13 @@
         <v>3.8</v>
       </c>
       <c r="D82">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E82" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>5.5</v>
       </c>
@@ -1812,7 +1862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>5.8</v>
       </c>
@@ -1829,7 +1879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>6</v>
       </c>
@@ -1837,7 +1887,7 @@
         <v>2.7</v>
       </c>
       <c r="C85">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D85">
         <v>1.6</v>
@@ -1846,7 +1896,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>5.4</v>
       </c>
@@ -1863,7 +1913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>6</v>
       </c>
@@ -1880,7 +1930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>6.7</v>
       </c>
@@ -1897,15 +1947,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>6.3</v>
       </c>
       <c r="B89">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C89">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D89">
         <v>1.3</v>
@@ -1914,7 +1964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>5.6</v>
       </c>
@@ -1922,7 +1972,7 @@
         <v>3</v>
       </c>
       <c r="C90">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D90">
         <v>1.3</v>
@@ -1931,7 +1981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>5.5</v>
       </c>
@@ -1948,7 +1998,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>5.5</v>
       </c>
@@ -1956,7 +2006,7 @@
         <v>2.6</v>
       </c>
       <c r="C92">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D92">
         <v>1.2</v>
@@ -1965,7 +2015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>6.1</v>
       </c>
@@ -1973,7 +2023,7 @@
         <v>3</v>
       </c>
       <c r="C93">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D93">
         <v>1.4</v>
@@ -1982,7 +2032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>5.8</v>
       </c>
@@ -1999,12 +2049,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>5</v>
       </c>
       <c r="B95">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C95">
         <v>3.3</v>
@@ -2016,7 +2066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>5.6</v>
       </c>
@@ -2033,7 +2083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>5.7</v>
       </c>
@@ -2050,7 +2100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>5.7</v>
       </c>
@@ -2067,7 +2117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>6.2</v>
       </c>
@@ -2084,9 +2134,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B100">
         <v>2.5</v>
@@ -2095,13 +2145,13 @@
         <v>3</v>
       </c>
       <c r="D100">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E100" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>5.7</v>
       </c>
@@ -2109,7 +2159,7 @@
         <v>2.8</v>
       </c>
       <c r="C101">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D101">
         <v>1.3</v>
@@ -2118,7 +2168,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>6.3</v>
       </c>
@@ -2135,7 +2185,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>5.8</v>
       </c>
@@ -2143,7 +2193,7 @@
         <v>2.7</v>
       </c>
       <c r="C103">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D103">
         <v>1.9</v>
@@ -2152,7 +2202,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>7.1</v>
       </c>
@@ -2169,7 +2219,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>6.3</v>
       </c>
@@ -2186,7 +2236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>6.5</v>
       </c>
@@ -2197,13 +2247,13 @@
         <v>5.8</v>
       </c>
       <c r="D106">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E106" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>7.6</v>
       </c>
@@ -2220,9 +2270,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="B108">
         <v>2.5</v>
@@ -2237,7 +2287,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>7.3</v>
       </c>
@@ -2254,7 +2304,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>6.7</v>
       </c>
@@ -2271,7 +2321,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>7.2</v>
       </c>
@@ -2288,7 +2338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>6.5</v>
       </c>
@@ -2296,7 +2346,7 @@
         <v>3.2</v>
       </c>
       <c r="C112">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D112">
         <v>2</v>
@@ -2305,7 +2355,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>6.4</v>
       </c>
@@ -2322,7 +2372,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>6.8</v>
       </c>
@@ -2339,7 +2389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>5.7</v>
       </c>
@@ -2356,7 +2406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>5.8</v>
       </c>
@@ -2364,7 +2414,7 @@
         <v>2.8</v>
       </c>
       <c r="C116">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D116">
         <v>2.4</v>
@@ -2373,7 +2423,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>6.4</v>
       </c>
@@ -2384,13 +2434,13 @@
         <v>5.3</v>
       </c>
       <c r="D117">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E117" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>6.5</v>
       </c>
@@ -2407,7 +2457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>7.7</v>
       </c>
@@ -2418,13 +2468,13 @@
         <v>6.7</v>
       </c>
       <c r="D119">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E119" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>7.7</v>
       </c>
@@ -2435,18 +2485,18 @@
         <v>6.9</v>
       </c>
       <c r="D120">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E120" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>6</v>
       </c>
       <c r="B121">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C121">
         <v>5</v>
@@ -2458,7 +2508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>6.9</v>
       </c>
@@ -2469,13 +2519,13 @@
         <v>5.7</v>
       </c>
       <c r="D122">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E122" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>5.6</v>
       </c>
@@ -2483,7 +2533,7 @@
         <v>2.8</v>
       </c>
       <c r="C123">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D123">
         <v>2</v>
@@ -2492,7 +2542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>7.7</v>
       </c>
@@ -2509,7 +2559,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>6.3</v>
       </c>
@@ -2517,7 +2567,7 @@
         <v>2.7</v>
       </c>
       <c r="C125">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D125">
         <v>1.8</v>
@@ -2526,7 +2576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>6.7</v>
       </c>
@@ -2543,7 +2593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>7.2</v>
       </c>
@@ -2560,7 +2610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>6.2</v>
       </c>
@@ -2577,7 +2627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>6.1</v>
       </c>
@@ -2585,7 +2635,7 @@
         <v>3</v>
       </c>
       <c r="C129">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D129">
         <v>1.8</v>
@@ -2594,7 +2644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>6.4</v>
       </c>
@@ -2611,7 +2661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>7.2</v>
       </c>
@@ -2628,7 +2678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>7.4</v>
       </c>
@@ -2645,7 +2695,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>7.9</v>
       </c>
@@ -2662,7 +2712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>6.4</v>
       </c>
@@ -2673,13 +2723,13 @@
         <v>5.6</v>
       </c>
       <c r="D134">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E134" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>6.3</v>
       </c>
@@ -2687,7 +2737,7 @@
         <v>2.8</v>
       </c>
       <c r="C135">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D135">
         <v>1.5</v>
@@ -2696,7 +2746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>6.1</v>
       </c>
@@ -2713,7 +2763,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>7.7</v>
       </c>
@@ -2724,13 +2774,13 @@
         <v>6.1</v>
       </c>
       <c r="D137">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E137" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>6.3</v>
       </c>
@@ -2747,7 +2797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>6.4</v>
       </c>
@@ -2764,7 +2814,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>6</v>
       </c>
@@ -2781,7 +2831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>6.9</v>
       </c>
@@ -2798,7 +2848,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>6.7</v>
       </c>
@@ -2815,7 +2865,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>6.9</v>
       </c>
@@ -2823,16 +2873,16 @@
         <v>3.1</v>
       </c>
       <c r="C143">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D143">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E143" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>5.8</v>
       </c>
@@ -2840,7 +2890,7 @@
         <v>2.7</v>
       </c>
       <c r="C144">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D144">
         <v>1.9</v>
@@ -2849,7 +2899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>6.8</v>
       </c>
@@ -2860,13 +2910,13 @@
         <v>5.9</v>
       </c>
       <c r="D145">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E145" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>6.7</v>
       </c>
@@ -2883,7 +2933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>6.7</v>
       </c>
@@ -2894,13 +2944,13 @@
         <v>5.2</v>
       </c>
       <c r="D147">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E147" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>6.3</v>
       </c>
@@ -2917,7 +2967,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>6.5</v>
       </c>
@@ -2934,7 +2984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>6.2</v>
       </c>
@@ -2945,13 +2995,13 @@
         <v>5.4</v>
       </c>
       <c r="D150">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E150" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>5.9</v>
       </c>
@@ -2959,7 +3009,7 @@
         <v>3</v>
       </c>
       <c r="C151">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D151">
         <v>1.8</v>
